--- a/zorin_cybersecurity2/ThreatAnalysis.xlsx
+++ b/zorin_cybersecurity2/ThreatAnalysis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -27,10 +27,15 @@
     <t>Mitigation</t>
   </si>
   <si>
-    <t xml:space="preserve">Mitigation in Place?</t>
-  </si>
-  <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation in Place
+[Yes/No]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority
+[Low/High]</t>
   </si>
   <si>
     <t>T1</t>
@@ -72,10 +77,13 @@
     <t xml:space="preserve">TLS v1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">Self-signed certiifcates</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Self-signed certiifcates</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>T2</t>
@@ -167,7 +175,13 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">No mitigation envisioned as we'd need to work on the PSono backend code. We, instead, monitor the vulnerabilities in T6 and T7.</t>
+  </si>
+  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t>T4</t>
@@ -200,7 +214,7 @@
     <t>T5</t>
   </si>
   <si>
-    <t xml:space="preserve">Exposed sensitive API (admin portal, ???)</t>
+    <t xml:space="preserve">Exposed sensitive API (admin portal, anything else?)</t>
   </si>
   <si>
     <t>T6</t>
@@ -212,13 +226,22 @@
     <t xml:space="preserve">PSono Software (source code) vulnerabilities</t>
   </si>
   <si>
+    <t xml:space="preserve">Python Static Code Analysis for security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security pipeline should be in place (shared on the PSono website) but we couldn't find them</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>T7</t>
   </si>
   <si>
-    <t xml:space="preserve">SBOM vulnerabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docker Scout</t>
+    <t xml:space="preserve">VM+Doker+SBOM vulnerabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker Scout, or, to limit the attack surface we can encrypt below Layer 7</t>
   </si>
   <si>
     <t>T8</t>
@@ -227,7 +250,13 @@
     <t>Authentication</t>
   </si>
   <si>
-    <t xml:space="preserve">PSono Login</t>
+    <t xml:space="preserve">Insecurities in PSono Login</t>
+  </si>
+  <si>
+    <t>https://doc.psono.com/images/Login.png</t>
+  </si>
+  <si>
+    <t>https://doc.psono.com/admin/asvs/v02-authentication.html#asvs-verification-requirement</t>
   </si>
   <si>
     <t>T9</t>
@@ -236,7 +265,10 @@
     <t>Authorization</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t xml:space="preserve">ssh shared accout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should check the SSH version (for vulns) and its configuration. This is part of the mitigation in T7</t>
   </si>
   <si>
     <t>T10</t>
@@ -248,23 +280,44 @@
     <t xml:space="preserve">Secret usage in Psono and VM</t>
   </si>
   <si>
+    <t xml:space="preserve">Secrets in cleartext in config files</t>
+  </si>
+  <si>
+    <t>HIgh</t>
+  </si>
+  <si>
     <t>T11</t>
   </si>
   <si>
     <t>Availability</t>
   </si>
   <si>
+    <t>DoS/DDoS</t>
+  </si>
+  <si>
+    <t>LoadBalancing/Cloudflare</t>
+  </si>
+  <si>
     <t>T12</t>
   </si>
   <si>
     <t>Accountability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users performs actions that cannot be traced back to him/her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging of PSono logins and client requests? Logging of actions/login on VM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See T9 &amp; T8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -278,14 +331,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +378,30 @@
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
@@ -350,55 +450,80 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="5" borderId="2" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="7" borderId="2" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,200 +1034,301 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.7109375"/>
-    <col customWidth="1" min="3" max="3" style="1" width="40.28125"/>
-    <col customWidth="1" min="4" max="4" style="1" width="19.28125"/>
-    <col customWidth="1" min="5" max="5" style="2" width="20.7109375"/>
-    <col customWidth="1" min="6" max="6" width="21.57421875"/>
+    <col customWidth="1" min="1" max="1" style="1" width="5.00390625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="14.57421875"/>
+    <col customWidth="1" min="3" max="3" style="2" width="40.28125"/>
+    <col customWidth="1" min="4" max="4" style="2" width="34.140625"/>
+    <col customWidth="1" min="5" max="5" width="34.140625"/>
+    <col customWidth="1" min="6" max="6" style="1" width="20.7109375"/>
+    <col customWidth="1" min="7" max="7" style="3" width="21.57421875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="33" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="28.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10" t="s">
+    <row r="4" ht="57">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" ht="28.5">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="G6" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
+    <row r="7" ht="57">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
+    <row r="8" ht="28.5">
+      <c r="A8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>17</v>
+    <row r="9" ht="71.25">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>34</v>
+    <row r="10" ht="42.75">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>17</v>
+    <row r="13" ht="42.75">
+      <c r="A13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D9"/>
+    <hyperlink r:id="rId2" ref="E9"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1111,7 +1337,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{009F006D-0011-4F69-B80B-004900B80067}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{009A0025-0052-49B9-867E-00D6005500AB}">
             <xm:f>"Yes"</xm:f>
             <x14:dxf>
               <font>
@@ -1125,10 +1351,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E:E E1</xm:sqref>
+          <xm:sqref>F:F F1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00AA0047-00BE-437C-8E2E-00E900EF00E3}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00EC008F-0039-4726-8EC2-00ED00B600DD}">
             <xm:f>"No"</xm:f>
             <x14:dxf>
               <font>
@@ -1142,7 +1368,41 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4 E:E E1</xm:sqref>
+          <xm:sqref>F4 F:F F1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005F0059-0054-4CD3-A27C-00640034003F}">
+            <xm:f>"Yes"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G1 G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007700F7-0065-49CC-9319-003A00A8005E}">
+            <xm:f>"No"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G1 G1</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
